--- a/mongo/planung.xlsx
+++ b/mongo/planung.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle2" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Tabelle2" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="146">
   <si>
     <t xml:space="preserve">Kategorie</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">Veranstaltung</t>
   </si>
   <si>
+    <t xml:space="preserve">Regel</t>
+  </si>
+  <si>
     <t xml:space="preserve">SWS</t>
   </si>
   <si>
@@ -127,6 +130,9 @@
     <t xml:space="preserve">Vorkurs</t>
   </si>
   <si>
+    <t xml:space="preserve">WS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Junker</t>
   </si>
   <si>
@@ -169,6 +175,9 @@
     <t xml:space="preserve">Lineare Algebra II</t>
   </si>
   <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Casanovas</t>
   </si>
   <si>
@@ -245,6 +254,9 @@
   </si>
   <si>
     <t xml:space="preserve">PÜ Stochastik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sem</t>
   </si>
   <si>
     <t xml:space="preserve">Ritter</t>
@@ -563,144 +575,39 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG52"/>
+  <dimension ref="A1:AH52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topRight" activeCell="T1" activeCellId="0" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="4.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="22" min="4" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="4.55"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="5" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="15.28"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -760,7 +667,7 @@
       <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="3" t="s">
@@ -793,18 +700,23 @@
       <c r="AG1" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="AH1" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -823,372 +735,390 @@
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
-      <c r="X2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3" t="s">
+      <c r="W2" s="4"/>
+      <c r="Y2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AC2" s="5"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
-    </row>
-    <row r="3" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AG2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="R3" s="4"/>
+      <c r="S3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T3" s="4"/>
+      <c r="U3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" s="4"/>
+      <c r="W3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U4" s="4"/>
+      <c r="V4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W4" s="4"/>
+      <c r="X4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="V5" s="4"/>
+      <c r="W5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W6" s="4"/>
+      <c r="X6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4" t="s">
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4" t="s">
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="U3" s="4"/>
-      <c r="V3" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="X3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T4" s="4"/>
-      <c r="U4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V4" s="4"/>
-      <c r="W4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="5"/>
-    </row>
-    <row r="5" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="U5" s="4"/>
-      <c r="V5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="V6" s="4"/>
-      <c r="W6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
-      <c r="X7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3" t="s">
+      <c r="W7" s="4"/>
+      <c r="Y7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3" t="s">
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3" t="s">
-        <v>53</v>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1207,31 +1137,34 @@
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
-      <c r="X8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF8" s="5"/>
+      <c r="W8" s="4"/>
+      <c r="Y8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1250,37 +1183,40 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
-      <c r="W9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="5"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE9" s="3"/>
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1299,32 +1235,35 @@
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
-      <c r="X10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE10" s="5"/>
+      <c r="W10" s="4"/>
+      <c r="Y10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1343,34 +1282,37 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
-      <c r="X11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="5"/>
+      <c r="W11" s="4"/>
+      <c r="Y11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD11" s="3"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1389,35 +1331,38 @@
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
-      <c r="W12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="5"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="3"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1436,33 +1381,36 @@
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
-      <c r="X13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD13" s="5"/>
+      <c r="W13" s="4"/>
+      <c r="Y13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1481,37 +1429,40 @@
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
-      <c r="W14" s="3" t="s">
+      <c r="W14" s="4"/>
+      <c r="X14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD14" s="5"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="4" t="n">
+        <v>77</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1530,39 +1481,42 @@
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
-      <c r="W15" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="W15" s="4"/>
       <c r="X15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="Z15" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC15" s="3"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="4" t="n">
+        <v>81</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1581,33 +1535,36 @@
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
-      <c r="W16" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD16" s="5"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="4" t="n">
+        <v>83</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1626,33 +1583,36 @@
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
-      <c r="W17" s="3"/>
+      <c r="W17" s="4"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
-      <c r="Z17" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC17" s="5"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="4" t="n">
+        <v>86</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1671,33 +1631,36 @@
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
-      <c r="X18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD18" s="5"/>
+      <c r="W18" s="4"/>
+      <c r="Y18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="4" t="n">
+        <v>87</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1716,27 +1679,30 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
-      <c r="W19" s="3"/>
+      <c r="W19" s="4"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-      <c r="AC19" s="5"/>
+      <c r="AC19" s="3"/>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1755,38 +1721,41 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
-      <c r="W20" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="W20" s="4"/>
       <c r="X20" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AB20" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC20" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="4" t="n">
+        <v>91</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1805,37 +1774,40 @@
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
-      <c r="W21" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="W21" s="4"/>
       <c r="X21" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="Y21" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AB21" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC21" s="5"/>
+        <v>92</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="4" t="n">
+        <v>94</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1854,37 +1826,40 @@
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
-      <c r="W22" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="W22" s="4"/>
       <c r="X22" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="Z22" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="AB22" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC22" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1903,360 +1878,378 @@
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
-      <c r="W23" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="W23" s="4"/>
       <c r="X23" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AA23" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="AB23" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>39</v>
+        <v>100</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="X24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="W25" s="4"/>
+      <c r="X25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="V25" s="4"/>
-      <c r="W25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3" t="s">
+      <c r="B26" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3" t="s">
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W26" s="4"/>
+      <c r="X26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="5"/>
+    </row>
+    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4" t="s">
+      <c r="D27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="V26" s="4"/>
-      <c r="W26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="5"/>
-    </row>
-    <row r="27" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="X27" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="5"/>
-    </row>
-    <row r="28" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="V28" s="4"/>
-      <c r="W28" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD28" s="5"/>
+      <c r="D28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="W28" s="4"/>
+      <c r="X28" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="4"/>
+        <v>111</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -2275,31 +2268,34 @@
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
-      <c r="X29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="5"/>
+      <c r="W29" s="4"/>
+      <c r="Y29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -2318,31 +2314,34 @@
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
-      <c r="W30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB30" s="3"/>
-      <c r="AD30" s="5"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC30" s="3"/>
+      <c r="AE30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="4"/>
+        <v>113</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -2361,30 +2360,33 @@
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
-      <c r="X31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC31" s="3"/>
+      <c r="W31" s="4"/>
+      <c r="Y31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="4" t="n">
+        <v>114</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -2403,31 +2405,34 @@
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
-      <c r="X32" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC32" s="3"/>
-      <c r="AD32" s="5"/>
+      <c r="W32" s="4"/>
+      <c r="Y32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="4"/>
+        <v>116</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -2446,28 +2451,31 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
-      <c r="X33" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y33" s="3"/>
+      <c r="W33" s="4"/>
+      <c r="Y33" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
-      <c r="AB33" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="4"/>
+        <v>119</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -2486,30 +2494,33 @@
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
-      <c r="X34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC34" s="3"/>
+      <c r="W34" s="4"/>
+      <c r="Y34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -2528,28 +2539,31 @@
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
-      <c r="X35" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y35" s="3"/>
+      <c r="W35" s="4"/>
+      <c r="Y35" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
-      <c r="AB35" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -2568,30 +2582,33 @@
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
-      <c r="X36" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC36" s="3"/>
+      <c r="W36" s="4"/>
+      <c r="Y36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="4"/>
+        <v>122</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -2610,30 +2627,33 @@
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
-      <c r="W37" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z37" s="3"/>
-      <c r="AA37" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC37" s="3"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -2652,31 +2672,34 @@
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
-      <c r="W38" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="W38" s="4"/>
       <c r="X38" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA38" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="Y38" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="4"/>
+        <v>125</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -2695,33 +2718,36 @@
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
-      <c r="W39" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB39" s="3"/>
-      <c r="AC39" s="3" t="s">
-        <v>42</v>
+      <c r="W39" s="4"/>
+      <c r="X39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -2740,29 +2766,32 @@
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
-      <c r="W40" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3" t="s">
-        <v>120</v>
+      <c r="W40" s="4"/>
+      <c r="X40" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="4"/>
+        <v>127</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -2781,26 +2810,29 @@
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
-      <c r="X41" s="3"/>
+      <c r="W41" s="4"/>
       <c r="Y41" s="3"/>
-      <c r="Z41" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="4"/>
+        <v>128</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -2819,30 +2851,33 @@
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
-      <c r="W42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC42" s="3"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="4"/>
+        <v>129</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -2861,28 +2896,31 @@
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
-      <c r="X43" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y43" s="3"/>
+      <c r="W43" s="4"/>
+      <c r="Y43" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
-      <c r="AB43" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -2901,29 +2939,32 @@
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
-      <c r="X44" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA44" s="3"/>
-      <c r="AB44" s="3" t="s">
-        <v>128</v>
+      <c r="W44" s="4"/>
+      <c r="Y44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -2942,26 +2983,29 @@
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
-      <c r="W45" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z45" s="3"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D46" s="4"/>
+        <v>134</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -2980,30 +3024,33 @@
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
-      <c r="W46" s="3" t="s">
+      <c r="W46" s="4"/>
+      <c r="X46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z46" s="3"/>
-      <c r="AA46" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" s="4"/>
+        <v>135</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -3022,33 +3069,36 @@
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
-      <c r="W47" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z47" s="3"/>
-      <c r="AA47" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB47" s="3"/>
-      <c r="AC47" s="3" t="s">
-        <v>47</v>
+      <c r="W47" s="4"/>
+      <c r="X47" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D48" s="4"/>
+        <v>136</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -3067,27 +3117,30 @@
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
-      <c r="X48" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y48" s="3"/>
+      <c r="W48" s="4"/>
+      <c r="Y48" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
-      <c r="AB48" s="3" t="s">
-        <v>51</v>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D49" s="4"/>
+        <v>137</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -3106,68 +3159,75 @@
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
-      <c r="W49" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z49" s="3"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC50" s="1" t="s">
-        <v>54</v>
+        <v>139</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD50" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="W51" s="3" t="s">
-        <v>55</v>
+        <v>141</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="Y51" s="3" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="AA51" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AB51" s="3" t="s">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="AC51" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD51" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="AD51" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE51" s="3"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y52" s="3"/>
-      <c r="AA52" s="3"/>
+      <c r="Z52" s="3"/>
+      <c r="AB52" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
